--- a/nordson.omu/src/test/java/com/nordson/testData/MDS-Temp-Ctrl.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/MDS-Temp-Ctrl.xlsx
@@ -12,6 +12,7 @@
     <sheet name="H5" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ProBlue Flex'!$A$1:$Z$49</definedName>
     <definedName name="Group">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ProBlue Flex'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'ProBlue Flex'!$F:$I,'ProBlue Flex'!#REF!</definedName>
@@ -972,13 +973,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,10 +1016,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,8 +1054,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,6 +1071,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1060,10 +1100,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1074,62 +1123,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,23 +1153,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,6 +1223,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1241,13 +1319,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,103 +1373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,49 +1385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,8 +1664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,23 +1673,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1727,15 +1694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1747,6 +1705,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,148 +1750,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2322,8 +2304,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3233,35 +3215,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr filterMode="1" codeName="Sheet1"/>
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.12037037037037" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.12037037037037" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="13.287037037037" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="3.11111111111111" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.22222222222222" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.55555555555556" style="11" customWidth="1"/>
+    <col min="3" max="3" width="3.11111111111111" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="10" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4.22222222222222" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5555555555556" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.5555555555556" style="11" customWidth="1"/>
     <col min="8" max="8" width="2.44444444444444" style="12" customWidth="1"/>
     <col min="9" max="9" width="4.33333333333333" style="13" customWidth="1"/>
     <col min="10" max="10" width="17.8518518518519" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.287037037037" style="8" customWidth="1"/>
-    <col min="12" max="12" width="5.11111111111111" style="8" customWidth="1"/>
-    <col min="13" max="13" width="5.44444444444444" style="8" customWidth="1"/>
-    <col min="14" max="14" width="15.712962962963" style="8" customWidth="1"/>
-    <col min="15" max="15" width="19" style="8" customWidth="1"/>
-    <col min="16" max="16" width="13.287037037037" style="8" customWidth="1"/>
-    <col min="17" max="18" width="14.4259259259259" style="8" customWidth="1"/>
-    <col min="19" max="20" width="15" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15.8888888888889" style="8" customWidth="1"/>
+    <col min="12" max="12" width="5.11111111111111" style="8" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44444444444444" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44444444444444" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9.33333333333333" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.44444444444444" style="8" customWidth="1"/>
+    <col min="17" max="17" width="16.2222222222222" style="8" customWidth="1"/>
+    <col min="18" max="18" width="27.6666666666667" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="8" customWidth="1"/>
+    <col min="20" max="20" width="8.22222222222222" style="8" customWidth="1"/>
     <col min="21" max="21" width="9.13888888888889" style="14"/>
     <col min="22" max="22" width="10.5740740740741" style="14" customWidth="1"/>
     <col min="23" max="23" width="11.287037037037" style="14" customWidth="1"/>
@@ -3350,7 +3334,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" ht="29.45" customHeight="1" spans="2:26">
+    <row r="2" ht="29.45" hidden="1" customHeight="1" spans="2:26">
       <c r="B2" s="20" t="s">
         <v>97</v>
       </c>
@@ -3398,7 +3382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="2:20">
+    <row r="3" ht="15.15" hidden="1" spans="2:20">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="D3" s="25"/>
@@ -3423,7 +3407,7 @@
       <c r="S3" s="91"/>
       <c r="T3" s="135"/>
     </row>
-    <row r="4" ht="80.25" customHeight="1" spans="1:26">
+    <row r="4" ht="80.25" hidden="1" customHeight="1" spans="1:26">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
         <v>111</v>
@@ -3472,7 +3456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="98.45" customHeight="1" spans="1:20">
+    <row r="5" ht="98.45" hidden="1" customHeight="1" spans="1:20">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -3498,7 +3482,7 @@
       <c r="S5" s="91"/>
       <c r="T5" s="135"/>
     </row>
-    <row r="6" ht="405" customHeight="1" spans="1:26">
+    <row r="6" ht="43" customHeight="1" spans="1:26">
       <c r="A6" s="32"/>
       <c r="B6" s="20" t="s">
         <v>118</v>
@@ -3555,7 +3539,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" ht="142.9" customHeight="1" spans="1:26">
+    <row r="7" ht="40" customHeight="1" spans="1:26">
       <c r="A7" s="32"/>
       <c r="B7" s="20" t="s">
         <v>127</v>
@@ -3612,7 +3596,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" ht="129" customHeight="1" spans="1:20">
+    <row r="8" ht="31" customHeight="1" spans="1:20">
       <c r="A8" s="35"/>
       <c r="B8" s="36" t="s">
         <v>132</v>
@@ -3666,7 +3650,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" ht="199.9" customHeight="1" spans="1:26">
+    <row r="9" ht="199.9" hidden="1" customHeight="1" spans="1:26">
       <c r="A9" s="28"/>
       <c r="B9" s="29" t="s">
         <v>138</v>
@@ -3713,7 +3697,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" ht="33.6" customHeight="1" spans="1:20">
+    <row r="10" ht="33.6" hidden="1" customHeight="1" spans="1:20">
       <c r="A10" s="39"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -3739,7 +3723,7 @@
       <c r="S10" s="91"/>
       <c r="T10" s="135"/>
     </row>
-    <row r="11" ht="33.6" customHeight="1" spans="1:20">
+    <row r="11" ht="33.6" hidden="1" customHeight="1" spans="1:20">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="25"/>
@@ -3765,7 +3749,7 @@
       <c r="S11" s="91"/>
       <c r="T11" s="135"/>
     </row>
-    <row r="12" ht="194.45" customHeight="1" spans="1:26">
+    <row r="12" ht="194.45" hidden="1" customHeight="1" spans="1:26">
       <c r="A12" s="28"/>
       <c r="B12" s="29" t="s">
         <v>151</v>
@@ -3812,7 +3796,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" ht="41.45" customHeight="1" spans="1:20">
+    <row r="13" ht="41.45" hidden="1" customHeight="1" spans="1:20">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -3838,7 +3822,7 @@
       <c r="S13" s="91"/>
       <c r="T13" s="135"/>
     </row>
-    <row r="14" ht="41.45" customHeight="1" spans="1:20">
+    <row r="14" ht="41.45" hidden="1" customHeight="1" spans="1:20">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="C14" s="25"/>
@@ -3864,7 +3848,7 @@
       <c r="S14" s="91"/>
       <c r="T14" s="135"/>
     </row>
-    <row r="15" ht="239.25" customHeight="1" spans="1:26">
+    <row r="15" ht="239.25" hidden="1" customHeight="1" spans="1:26">
       <c r="A15" s="28"/>
       <c r="B15" s="29" t="s">
         <v>155</v>
@@ -3909,7 +3893,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" ht="36" customHeight="1" spans="1:20">
+    <row r="16" ht="36" hidden="1" customHeight="1" spans="1:20">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -3935,7 +3919,7 @@
       <c r="S16" s="91"/>
       <c r="T16" s="135"/>
     </row>
-    <row r="17" ht="36" customHeight="1" spans="1:20">
+    <row r="17" ht="36" hidden="1" customHeight="1" spans="1:20">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="25"/>
@@ -3961,7 +3945,7 @@
       <c r="S17" s="91"/>
       <c r="T17" s="135"/>
     </row>
-    <row r="18" ht="15.15" spans="1:20">
+    <row r="18" ht="15.15" hidden="1" spans="1:20">
       <c r="A18" s="2" t="s">
         <v>158</v>
       </c>
@@ -3987,7 +3971,7 @@
       <c r="S18" s="100"/>
       <c r="T18" s="134"/>
     </row>
-    <row r="19" ht="189" customHeight="1" spans="1:26">
+    <row r="19" ht="189" hidden="1" customHeight="1" spans="1:26">
       <c r="A19" s="28"/>
       <c r="B19" s="21" t="s">
         <v>160</v>
@@ -4036,7 +4020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" ht="44.45" customHeight="1" spans="1:26">
+    <row r="20" ht="44.45" hidden="1" customHeight="1" spans="1:26">
       <c r="A20" s="30"/>
       <c r="B20" s="21"/>
       <c r="C20" s="25"/>
@@ -4068,7 +4052,7 @@
       <c r="Y20" s="137"/>
       <c r="Z20" s="46"/>
     </row>
-    <row r="21" ht="87.75" customHeight="1" spans="1:26">
+    <row r="21" ht="22" customHeight="1" spans="1:26">
       <c r="A21" s="4"/>
       <c r="B21" s="36" t="s">
         <v>170</v>
@@ -4122,7 +4106,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="105.75" customHeight="1" spans="2:26">
+    <row r="22" s="2" customFormat="1" ht="105.75" hidden="1" customHeight="1" spans="2:26">
       <c r="B22" s="21" t="s">
         <v>177</v>
       </c>
@@ -4161,7 +4145,7 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="21" customHeight="1" spans="1:26">
+    <row r="23" s="3" customFormat="1" ht="21" hidden="1" customHeight="1" spans="1:26">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -4191,7 +4175,7 @@
       <c r="Y23" s="139"/>
       <c r="Z23" s="140"/>
     </row>
-    <row r="24" s="4" customFormat="1" ht="131.25" customHeight="1" spans="1:26">
+    <row r="24" s="4" customFormat="1" ht="38" customHeight="1" spans="1:26">
       <c r="A24" s="32"/>
       <c r="B24" s="53" t="s">
         <v>182</v>
@@ -4253,7 +4237,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="130.5" customHeight="1" spans="1:26">
+    <row r="25" s="2" customFormat="1" ht="26" customHeight="1" spans="1:26">
       <c r="A25" s="32"/>
       <c r="B25" s="54" t="s">
         <v>194</v>
@@ -4313,7 +4297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="64.5" customHeight="1" spans="1:26">
+    <row r="26" s="2" customFormat="1" ht="64.5" hidden="1" customHeight="1" spans="1:26">
       <c r="A26" s="28"/>
       <c r="B26" s="22" t="s">
         <v>205</v>
@@ -4367,7 +4351,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="64.5" customHeight="1" spans="1:26">
+    <row r="27" s="2" customFormat="1" ht="64.5" hidden="1" customHeight="1" spans="1:26">
       <c r="A27" s="30"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -4399,7 +4383,7 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="83.25" customHeight="1" spans="1:26">
+    <row r="28" s="2" customFormat="1" ht="46" customHeight="1" spans="1:26">
       <c r="A28" s="55"/>
       <c r="B28" s="54" t="s">
         <v>212</v>
@@ -4459,7 +4443,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="130.5" customHeight="1" spans="1:26">
+    <row r="29" s="2" customFormat="1" ht="34" customHeight="1" spans="1:26">
       <c r="A29" s="32"/>
       <c r="B29" s="54" t="s">
         <v>218</v>
@@ -4521,7 +4505,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" spans="2:26">
+    <row r="30" s="5" customFormat="1" hidden="1" spans="2:26">
       <c r="B30" s="56"/>
       <c r="C30" s="57"/>
       <c r="D30" s="51"/>
@@ -4550,7 +4534,7 @@
       <c r="Y30" s="51"/>
       <c r="Z30" s="51"/>
     </row>
-    <row r="31" s="6" customFormat="1" ht="51" customHeight="1" spans="2:26">
+    <row r="31" s="6" customFormat="1" ht="51" hidden="1" customHeight="1" spans="2:26">
       <c r="B31" s="60" t="s">
         <v>228</v>
       </c>
@@ -4599,7 +4583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" ht="79.5" customHeight="1" spans="2:26">
+    <row r="32" s="6" customFormat="1" ht="79.5" hidden="1" customHeight="1" spans="2:26">
       <c r="B32" s="60" t="s">
         <v>234</v>
       </c>
@@ -4650,7 +4634,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1" spans="2:26">
+    <row r="33" s="5" customFormat="1" hidden="1" spans="2:26">
       <c r="B33" s="56"/>
       <c r="C33" s="57"/>
       <c r="D33" s="51"/>
@@ -4679,7 +4663,7 @@
       <c r="Y33" s="51"/>
       <c r="Z33" s="51"/>
     </row>
-    <row r="34" s="6" customFormat="1" ht="57" customHeight="1" spans="1:26">
+    <row r="34" s="6" customFormat="1" ht="57" hidden="1" customHeight="1" spans="1:26">
       <c r="A34" s="65"/>
       <c r="B34" s="66" t="s">
         <v>240</v>
@@ -4733,7 +4717,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1" ht="57" customHeight="1" spans="1:26">
+    <row r="35" s="6" customFormat="1" ht="57" hidden="1" customHeight="1" spans="1:26">
       <c r="A35" s="70"/>
       <c r="B35" s="71"/>
       <c r="C35" s="72"/>
@@ -4765,7 +4749,7 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
     </row>
-    <row r="36" s="6" customFormat="1" ht="118.5" customHeight="1" spans="1:26">
+    <row r="36" s="6" customFormat="1" ht="118.5" hidden="1" customHeight="1" spans="1:26">
       <c r="A36" s="65"/>
       <c r="B36" s="66" t="s">
         <v>246</v>
@@ -4819,7 +4803,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" ht="35.45" customHeight="1" spans="1:26">
+    <row r="37" s="6" customFormat="1" ht="35.45" hidden="1" customHeight="1" spans="1:26">
       <c r="A37" s="75"/>
       <c r="B37" s="76"/>
       <c r="C37" s="77"/>
@@ -4851,7 +4835,7 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
     </row>
-    <row r="38" s="6" customFormat="1" ht="371.45" customHeight="1" spans="1:26">
+    <row r="38" s="6" customFormat="1" ht="371.45" hidden="1" customHeight="1" spans="1:26">
       <c r="A38" s="70"/>
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
@@ -4883,7 +4867,7 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
     </row>
-    <row r="39" s="6" customFormat="1" ht="159.6" customHeight="1" spans="2:26">
+    <row r="39" s="6" customFormat="1" ht="43" customHeight="1" spans="2:26">
       <c r="B39" s="60" t="s">
         <v>259</v>
       </c>
@@ -4934,7 +4918,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" ht="84" customHeight="1" spans="2:26">
+    <row r="40" s="6" customFormat="1" ht="17" customHeight="1" spans="2:26">
       <c r="B40" s="60" t="s">
         <v>264</v>
       </c>
@@ -4985,7 +4969,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" s="6" customFormat="1" ht="80.45" customHeight="1" spans="1:26">
+    <row r="41" s="6" customFormat="1" ht="80.45" hidden="1" customHeight="1" spans="1:26">
       <c r="A41" s="65"/>
       <c r="B41" s="66" t="s">
         <v>269</v>
@@ -5094,7 +5078,7 @@
       <c r="Y43" s="82"/>
       <c r="Z43" s="82"/>
     </row>
-    <row r="44" s="6" customFormat="1" ht="408.75" customHeight="1" spans="1:26">
+    <row r="44" s="6" customFormat="1" ht="408.75" hidden="1" customHeight="1" spans="1:26">
       <c r="A44" s="65"/>
       <c r="B44" s="66" t="s">
         <v>274</v>
@@ -5148,7 +5132,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" s="6" customFormat="1" ht="35.45" customHeight="1" spans="1:26">
+    <row r="45" s="6" customFormat="1" ht="35.45" hidden="1" customHeight="1" spans="1:26">
       <c r="A45" s="70"/>
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
@@ -5180,7 +5164,7 @@
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
     </row>
-    <row r="46" s="6" customFormat="1" ht="111" customHeight="1" spans="2:26">
+    <row r="46" s="6" customFormat="1" ht="111" hidden="1" customHeight="1" spans="2:26">
       <c r="B46" s="60" t="s">
         <v>278</v>
       </c>
@@ -5281,7 +5265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" s="6" customFormat="1" ht="40.5" customHeight="1" spans="1:26">
+    <row r="48" s="6" customFormat="1" ht="40.5" hidden="1" customHeight="1" spans="1:26">
       <c r="A48" s="70"/>
       <c r="B48" s="71"/>
       <c r="C48" s="72"/>
@@ -5313,7 +5297,7 @@
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
-    <row r="49" s="6" customFormat="1" ht="82.5" customHeight="1" spans="2:26">
+    <row r="49" s="6" customFormat="1" ht="82.5" hidden="1" customHeight="1" spans="2:26">
       <c r="B49" s="60" t="s">
         <v>286</v>
       </c>
@@ -7006,6 +6990,23 @@
       <c r="Z110" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z49">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Zone #"/>
+        <filter val="Global Set point"/>
+        <filter val="Tank/Grid"/>
+        <filter val="Over Temperature Threshold"/>
+        <filter val="Manifold"/>
+        <filter val="Under Temperature Threshold"/>
+        <filter val="Auto Heaters Off Time"/>
+        <filter val="System Setback  Delay"/>
+        <filter val="Time Delay"/>
+        <filter val="Temperature Setback"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <mergeCells count="130">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A11"/>
